--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl22-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl22-Ackr2.xlsx
@@ -531,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.844057666666666</v>
+        <v>2.145113</v>
       </c>
       <c r="H2">
-        <v>5.532172999999999</v>
+        <v>6.435339</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.5064286395095555</v>
+        <v>0.5891066628886666</v>
       </c>
       <c r="R2">
-        <v>4.557857755585999</v>
+        <v>5.301959965998</v>
       </c>
       <c r="S2">
         <v>1</v>
